--- a/Code/Results/Cases/Case_4_201/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_201/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.97325038674004</v>
+        <v>33.23047904178452</v>
       </c>
       <c r="C2">
-        <v>21.54435122846638</v>
+        <v>19.86901821678549</v>
       </c>
       <c r="D2">
-        <v>6.637149175386107</v>
+        <v>11.1547285587345</v>
       </c>
       <c r="E2">
-        <v>5.91240017463569</v>
+        <v>9.269531559306516</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.157920306824488</v>
+        <v>3.861643185877579</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34.59699424899052</v>
+        <v>46.17174936111569</v>
       </c>
       <c r="J2">
-        <v>5.028198892051236</v>
+        <v>6.344284098028226</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.293849133233739</v>
+        <v>15.00686773499833</v>
       </c>
       <c r="M2">
-        <v>18.34852477153679</v>
+        <v>26.16377165705835</v>
       </c>
       <c r="N2">
-        <v>17.82516426205269</v>
+        <v>25.63916579089601</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.45894796136801</v>
+        <v>33.03940577600938</v>
       </c>
       <c r="C3">
-        <v>20.21401856770663</v>
+        <v>19.59037697689681</v>
       </c>
       <c r="D3">
-        <v>6.59447267250284</v>
+        <v>11.1751999113411</v>
       </c>
       <c r="E3">
-        <v>5.854842672995649</v>
+        <v>9.258108059337692</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.173252143139295</v>
+        <v>3.866860942541714</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.89847410766228</v>
+        <v>46.13933565104431</v>
       </c>
       <c r="J3">
-        <v>4.857096754756856</v>
+        <v>6.350943247711864</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.176061391344909</v>
+        <v>15.02834488693622</v>
       </c>
       <c r="M3">
-        <v>17.75495660988432</v>
+        <v>26.14950876479657</v>
       </c>
       <c r="N3">
-        <v>17.94209442183401</v>
+        <v>25.67358032268842</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.51899669265353</v>
+        <v>32.93094029205604</v>
       </c>
       <c r="C4">
-        <v>19.37927451167405</v>
+        <v>19.42384398051451</v>
       </c>
       <c r="D4">
-        <v>6.572146135093021</v>
+        <v>11.18933253883156</v>
       </c>
       <c r="E4">
-        <v>5.819986767730974</v>
+        <v>9.250967766169358</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.182825516405265</v>
+        <v>3.870227441466213</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.49337329893191</v>
+        <v>46.12772438176076</v>
       </c>
       <c r="J4">
-        <v>4.750346371575991</v>
+        <v>6.356207020055137</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.109794441474826</v>
+        <v>15.04394504891497</v>
       </c>
       <c r="M4">
-        <v>17.39831123591791</v>
+        <v>26.14640633426343</v>
       </c>
       <c r="N4">
-        <v>18.0196766535032</v>
+        <v>25.69661449019479</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.13368556379657</v>
+        <v>32.88899833142332</v>
       </c>
       <c r="C5">
-        <v>19.03473051568832</v>
+        <v>19.35720664796712</v>
       </c>
       <c r="D5">
-        <v>6.563985821914871</v>
+        <v>11.19548463183433</v>
       </c>
       <c r="E5">
-        <v>5.805876181975457</v>
+        <v>9.248025951396945</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.186772272213408</v>
+        <v>3.871640426794786</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>33.33404460445743</v>
+        <v>46.12507461749587</v>
       </c>
       <c r="J5">
-        <v>4.706404990559153</v>
+        <v>6.358646989444681</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.084258073971004</v>
+        <v>15.05090833259212</v>
       </c>
       <c r="M5">
-        <v>17.25498691641335</v>
+        <v>26.14656409532334</v>
       </c>
       <c r="N5">
-        <v>18.05268103813271</v>
+        <v>25.70647898579796</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.06957789660359</v>
+        <v>32.88217117949856</v>
       </c>
       <c r="C6">
-        <v>18.97726034075291</v>
+        <v>19.34621794396421</v>
       </c>
       <c r="D6">
-        <v>6.562686412086689</v>
+        <v>11.19652991016342</v>
       </c>
       <c r="E6">
-        <v>5.803538006080596</v>
+        <v>9.247535517110933</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.187430525729249</v>
+        <v>3.871877540087739</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>33.3079292081459</v>
+        <v>46.12476026342038</v>
       </c>
       <c r="J6">
-        <v>4.699081707615779</v>
+        <v>6.359069941252484</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.080104891056113</v>
+        <v>15.05210116479036</v>
       </c>
       <c r="M6">
-        <v>17.23131125638683</v>
+        <v>26.14667616287026</v>
       </c>
       <c r="N6">
-        <v>18.05824349971126</v>
+        <v>25.70814581857626</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.51380900780129</v>
+        <v>32.93036546339377</v>
       </c>
       <c r="C7">
-        <v>19.37464536376765</v>
+        <v>19.42294021614732</v>
       </c>
       <c r="D7">
-        <v>6.572032332044104</v>
+        <v>11.18941391731365</v>
       </c>
       <c r="E7">
-        <v>5.819796124147734</v>
+        <v>9.250928222210288</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.182878552634596</v>
+        <v>3.870246330790003</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.49120153562507</v>
+        <v>46.12768022103821</v>
       </c>
       <c r="J7">
-        <v>4.749755557223838</v>
+        <v>6.356238732879674</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.109444175695398</v>
+        <v>15.0440365051234</v>
       </c>
       <c r="M7">
-        <v>17.39637009261875</v>
+        <v>26.14640270468655</v>
       </c>
       <c r="N7">
-        <v>18.02011621976316</v>
+        <v>25.69674559227938</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.4533647008316</v>
+        <v>33.16277967720185</v>
       </c>
       <c r="C8">
-        <v>21.08941553337482</v>
+        <v>19.77204704780868</v>
       </c>
       <c r="D8">
-        <v>6.621606722617994</v>
+        <v>11.16146257905321</v>
       </c>
       <c r="E8">
-        <v>5.892435609486536</v>
+        <v>9.265618720945959</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.163177038067307</v>
+        <v>3.86340859213677</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.35106248443384</v>
+        <v>46.1588509036461</v>
       </c>
       <c r="J8">
-        <v>4.969543740526182</v>
+        <v>6.346335995217624</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.251945256434379</v>
+        <v>15.01377181493319</v>
       </c>
       <c r="M8">
-        <v>18.14226447649669</v>
+        <v>26.15768035060238</v>
       </c>
       <c r="N8">
-        <v>17.86423839907726</v>
+        <v>25.65063638478398</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.16961839239359</v>
+        <v>33.68721464398347</v>
       </c>
       <c r="C9">
-        <v>24.30968882613342</v>
+        <v>20.48909676107139</v>
       </c>
       <c r="D9">
-        <v>6.751382914852459</v>
+        <v>11.11905877624877</v>
       </c>
       <c r="E9">
-        <v>6.04021079829671</v>
+        <v>9.293441850839827</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.125531217499311</v>
+        <v>3.8512832083844</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.23761890502158</v>
+        <v>46.28585284660496</v>
       </c>
       <c r="J9">
-        <v>5.388143241006</v>
+        <v>6.376104971456146</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.582118087409714</v>
+        <v>14.97359963678973</v>
       </c>
       <c r="M9">
-        <v>19.66615950706214</v>
+        <v>26.22463479307174</v>
       </c>
       <c r="N9">
-        <v>17.60793383386564</v>
+        <v>25.57535500156725</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.84704107856819</v>
+        <v>34.11203015828291</v>
       </c>
       <c r="C10">
-        <v>26.59632820894107</v>
+        <v>21.03066829019326</v>
       </c>
       <c r="D10">
-        <v>6.869354702280403</v>
+        <v>11.09547758653459</v>
       </c>
       <c r="E10">
-        <v>6.154488032030883</v>
+        <v>9.31330730286672</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.098026486691001</v>
+        <v>3.843145673405085</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.76484063190192</v>
+        <v>46.41939340016732</v>
       </c>
       <c r="J10">
-        <v>5.690253401647545</v>
+        <v>6.455893136271731</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.859863142958897</v>
+        <v>14.95581437442559</v>
       </c>
       <c r="M10">
-        <v>20.8248700609592</v>
+        <v>26.30107499111924</v>
       </c>
       <c r="N10">
-        <v>17.45542899156006</v>
+        <v>25.52932424971554</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.05639967726633</v>
+        <v>34.31330516125492</v>
       </c>
       <c r="C11">
-        <v>27.62328648049018</v>
+        <v>21.27917230897687</v>
       </c>
       <c r="D11">
-        <v>6.928654858921663</v>
+        <v>11.08639568912072</v>
       </c>
       <c r="E11">
-        <v>6.208404074204974</v>
+        <v>9.322224782241733</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.085424852870757</v>
+        <v>3.839608660773862</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>38.49565031689806</v>
+        <v>46.48887340043949</v>
       </c>
       <c r="J11">
-        <v>5.82721595360719</v>
+        <v>6.491330280368625</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.994997186008426</v>
+        <v>14.95027690820797</v>
       </c>
       <c r="M11">
-        <v>21.36188751257332</v>
+        <v>26.34173079222488</v>
       </c>
       <c r="N11">
-        <v>17.39541486547321</v>
+        <v>25.5104094480333</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.51354740754812</v>
+        <v>34.39062512526432</v>
       </c>
       <c r="C12">
-        <v>28.02287342397761</v>
+        <v>21.37349333619802</v>
       </c>
       <c r="D12">
-        <v>6.951991432890233</v>
+        <v>11.08319326866747</v>
       </c>
       <c r="E12">
-        <v>6.22917007944505</v>
+        <v>9.325584825514094</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.080627612227959</v>
+        <v>3.838292792789315</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>38.77814585393375</v>
+        <v>46.51643639261152</v>
       </c>
       <c r="J12">
-        <v>5.879091824722383</v>
+        <v>6.504624211988011</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.04754964437071</v>
+        <v>14.94854749440462</v>
       </c>
       <c r="M12">
-        <v>21.56686970731383</v>
+        <v>26.35796744403936</v>
       </c>
       <c r="N12">
-        <v>17.374199774332</v>
+        <v>25.50353902573977</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.41511978279451</v>
+        <v>34.37392475573353</v>
       </c>
       <c r="C13">
-        <v>27.93598509694187</v>
+        <v>21.35317133317862</v>
       </c>
       <c r="D13">
-        <v>6.94692505191888</v>
+        <v>11.08387243866692</v>
       </c>
       <c r="E13">
-        <v>6.224680922374366</v>
+        <v>9.324861922092524</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.081662129991603</v>
+        <v>3.838575145145999</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>38.71703905882114</v>
+        <v>46.51044457017399</v>
       </c>
       <c r="J13">
-        <v>5.867917467182107</v>
+        <v>6.501766729605427</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.03616803723669</v>
+        <v>14.948903604969</v>
       </c>
       <c r="M13">
-        <v>21.52264676685091</v>
+        <v>26.35443326350881</v>
       </c>
       <c r="N13">
-        <v>17.37869866270427</v>
+        <v>25.50500568158585</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.09402265148925</v>
+        <v>34.31964455359009</v>
       </c>
       <c r="C14">
-        <v>27.6551889831185</v>
+        <v>21.28692829682515</v>
       </c>
       <c r="D14">
-        <v>6.930556671158404</v>
+        <v>11.08612747979715</v>
       </c>
       <c r="E14">
-        <v>6.210105046247836</v>
+        <v>9.322501549909109</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.085030766690465</v>
+        <v>3.839499933111334</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>38.51877237170312</v>
+        <v>46.49111594635097</v>
       </c>
       <c r="J14">
-        <v>5.831483068805367</v>
+        <v>6.492426502628039</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.999292296004214</v>
+        <v>14.95012726121345</v>
       </c>
       <c r="M14">
-        <v>21.37871750865749</v>
+        <v>26.3430497630725</v>
       </c>
       <c r="N14">
-        <v>17.3936381500306</v>
+        <v>25.50983835209271</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.89725158696806</v>
+        <v>34.28653821646365</v>
       </c>
       <c r="C15">
-        <v>27.48830772289237</v>
+        <v>21.24637827163026</v>
       </c>
       <c r="D15">
-        <v>6.920647582632753</v>
+        <v>11.08753958519062</v>
       </c>
       <c r="E15">
-        <v>6.201224743470415</v>
+        <v>9.321053574984413</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.087090455851017</v>
+        <v>3.840069450496759</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38.39809662552331</v>
+        <v>46.47943959427675</v>
       </c>
       <c r="J15">
-        <v>5.809170065314836</v>
+        <v>6.486688966303173</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.976888434998564</v>
+        <v>14.95092465509734</v>
       </c>
       <c r="M15">
-        <v>21.29077567501076</v>
+        <v>26.3361864314129</v>
       </c>
       <c r="N15">
-        <v>17.40299120841788</v>
+        <v>25.51283658675218</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.76786604604701</v>
+        <v>34.09903340496713</v>
       </c>
       <c r="C16">
-        <v>26.52898600916557</v>
+        <v>21.01446332042251</v>
       </c>
       <c r="D16">
-        <v>6.865598457359141</v>
+        <v>11.0961042271182</v>
       </c>
       <c r="E16">
-        <v>6.151009139789222</v>
+        <v>9.312722152342383</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.098847220910702</v>
+        <v>3.843380126585545</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.71785196890259</v>
+        <v>46.41502817743669</v>
       </c>
       <c r="J16">
-        <v>5.681299419186192</v>
+        <v>6.453559794471239</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.851218079149216</v>
+        <v>14.9562276701115</v>
       </c>
       <c r="M16">
-        <v>20.78998946215685</v>
+        <v>26.29853602861586</v>
       </c>
       <c r="N16">
-        <v>17.45955283334633</v>
+        <v>25.5306012091729</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.07306998847152</v>
+        <v>33.98602393451534</v>
       </c>
       <c r="C17">
-        <v>25.93738344905734</v>
+        <v>20.87267478746411</v>
       </c>
       <c r="D17">
-        <v>6.833317484492072</v>
+        <v>11.1017798417412</v>
       </c>
       <c r="E17">
-        <v>6.120744609651703</v>
+        <v>9.307580764394812</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.10602852557201</v>
+        <v>3.845453201947317</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.31014776322878</v>
+        <v>46.37774836548786</v>
       </c>
       <c r="J17">
-        <v>5.602784800326088</v>
+        <v>6.433014818135735</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.776449904050558</v>
+        <v>14.96013511005824</v>
       </c>
       <c r="M17">
-        <v>20.48543010892909</v>
+        <v>26.27694233630682</v>
       </c>
       <c r="N17">
-        <v>17.49675721731062</v>
+        <v>25.5420185657111</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.67259539128931</v>
+        <v>33.92178245092359</v>
       </c>
       <c r="C18">
-        <v>25.59582512367157</v>
+        <v>20.79132853059181</v>
       </c>
       <c r="D18">
-        <v>6.815275816786018</v>
+        <v>11.10519916439833</v>
       </c>
       <c r="E18">
-        <v>6.103513963564618</v>
+        <v>9.304612312605864</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.110151447635886</v>
+        <v>3.846661101615747</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>37.07900168248729</v>
+        <v>46.35712814093908</v>
       </c>
       <c r="J18">
-        <v>5.557575390518108</v>
+        <v>6.421117155825313</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.734264097125598</v>
+        <v>14.96262286409421</v>
       </c>
       <c r="M18">
-        <v>20.31117248696521</v>
+        <v>26.26507626957693</v>
       </c>
       <c r="N18">
-        <v>17.51902582481586</v>
+        <v>25.54877604973406</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.53684592392124</v>
+        <v>33.90016323367547</v>
       </c>
       <c r="C19">
-        <v>25.47994622735586</v>
+        <v>20.76382436090337</v>
       </c>
       <c r="D19">
-        <v>6.809255499125488</v>
+        <v>11.1063834819082</v>
       </c>
       <c r="E19">
-        <v>6.097708357176852</v>
+        <v>9.30360530077772</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.111546439758277</v>
+        <v>3.847072746861323</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.00130043473838</v>
+        <v>46.35028776801951</v>
       </c>
       <c r="J19">
-        <v>5.542257609078533</v>
+        <v>6.417075002070121</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.720118154698518</v>
+        <v>14.96350643345507</v>
       </c>
       <c r="M19">
-        <v>20.25232451675341</v>
+        <v>26.26115391321004</v>
       </c>
       <c r="N19">
-        <v>17.52671041004454</v>
+        <v>25.55109670877863</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.1471172412083</v>
+        <v>33.99797584846117</v>
       </c>
       <c r="C20">
-        <v>26.00049038012013</v>
+        <v>20.88774767651823</v>
       </c>
       <c r="D20">
-        <v>6.836698986603511</v>
+        <v>11.10115963469954</v>
       </c>
       <c r="E20">
-        <v>6.123947558062386</v>
+        <v>9.308129236837917</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.105264930124546</v>
+        <v>3.845230914383658</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.35319766964941</v>
+        <v>46.38163179647158</v>
       </c>
       <c r="J20">
-        <v>5.611147469867267</v>
+        <v>6.435210235169297</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.784323580991902</v>
+        <v>14.95969428352276</v>
       </c>
       <c r="M20">
-        <v>20.51775488768891</v>
+        <v>26.27918371095618</v>
       </c>
       <c r="N20">
-        <v>17.49270564525264</v>
+        <v>25.54078344282075</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.18835436055382</v>
+        <v>34.33555849895207</v>
       </c>
       <c r="C21">
-        <v>27.73566591783549</v>
+        <v>21.30638027435669</v>
       </c>
       <c r="D21">
-        <v>6.935339931642826</v>
+        <v>11.0854586949642</v>
       </c>
       <c r="E21">
-        <v>6.21437621530214</v>
+        <v>9.323195301856531</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.084042112536356</v>
+        <v>3.839227663484591</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>38.57684678624145</v>
+        <v>46.49675927240375</v>
       </c>
       <c r="J21">
-        <v>5.842183707774693</v>
+        <v>6.495173370008768</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.01008509147346</v>
+        <v>14.94975786731932</v>
       </c>
       <c r="M21">
-        <v>21.4209469074417</v>
+        <v>26.34637058576484</v>
       </c>
       <c r="N21">
-        <v>17.38920758487539</v>
+        <v>25.50841094096939</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.51802902592662</v>
+        <v>34.56258283605634</v>
       </c>
       <c r="C22">
-        <v>28.90763997549077</v>
+        <v>21.58121097326995</v>
       </c>
       <c r="D22">
-        <v>7.004984038106487</v>
+        <v>11.07657690437745</v>
       </c>
       <c r="E22">
-        <v>6.275556284895581</v>
+        <v>9.332944017506291</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.070016938112093</v>
+        <v>3.835441214581444</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>39.41047295768156</v>
+        <v>46.57929952531179</v>
       </c>
       <c r="J22">
-        <v>5.993295769359309</v>
+        <v>6.533631309650087</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.16575027835211</v>
+        <v>14.94540604175304</v>
       </c>
       <c r="M22">
-        <v>22.0208643825942</v>
+        <v>26.39518134029433</v>
       </c>
       <c r="N22">
-        <v>17.33047298501541</v>
+        <v>25.48895731331818</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.80856973430447</v>
+        <v>34.4408484248409</v>
       </c>
       <c r="C23">
-        <v>28.28309642073956</v>
+        <v>21.43444529009201</v>
       </c>
       <c r="D23">
-        <v>6.967313385563563</v>
+        <v>11.08119101450893</v>
       </c>
       <c r="E23">
-        <v>6.242685397593565</v>
+        <v>9.327749776696347</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.077521325123191</v>
+        <v>3.837449633884402</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>38.96222620027977</v>
+        <v>46.53457984199147</v>
       </c>
       <c r="J23">
-        <v>5.912602380405626</v>
+        <v>6.513173106919097</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.08188107798014</v>
+        <v>14.94753258648516</v>
       </c>
       <c r="M23">
-        <v>21.69970766212964</v>
+        <v>26.36868353966168</v>
       </c>
       <c r="N23">
-        <v>17.36094276661665</v>
+        <v>25.49918384719034</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.11364370737127</v>
+        <v>33.99257011302929</v>
       </c>
       <c r="C24">
-        <v>25.97196425072377</v>
+        <v>20.88093268746793</v>
       </c>
       <c r="D24">
-        <v>6.835168604016569</v>
+        <v>11.10143954335897</v>
       </c>
       <c r="E24">
-        <v>6.122498984345405</v>
+        <v>9.307881311717592</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.105610168499378</v>
+        <v>3.84533136055111</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.33372472980912</v>
+        <v>46.37987356653944</v>
       </c>
       <c r="J24">
-        <v>5.607366931560665</v>
+        <v>6.434217955113747</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.780761410133737</v>
+        <v>14.95989282958664</v>
       </c>
       <c r="M24">
-        <v>20.50313826019222</v>
+        <v>26.27816867687573</v>
       </c>
       <c r="N24">
-        <v>17.49453463431191</v>
+        <v>25.54134123926842</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.17405069792884</v>
+        <v>33.53821932182072</v>
       </c>
       <c r="C25">
-        <v>23.45338274342048</v>
+        <v>20.29215810311216</v>
       </c>
       <c r="D25">
-        <v>6.712520629267154</v>
+        <v>11.12920075335383</v>
       </c>
       <c r="E25">
-        <v>5.999433837055133</v>
+        <v>9.286017897038889</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.135651954204987</v>
+        <v>3.854427229163647</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>35.70402568604263</v>
+        <v>46.24443095865834</v>
       </c>
       <c r="J25">
-        <v>5.276048350492575</v>
+        <v>6.345972869059222</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.486961959925777</v>
+        <v>14.98240992943324</v>
       </c>
       <c r="M25">
-        <v>19.24732253579445</v>
+        <v>26.20172702684741</v>
       </c>
       <c r="N25">
-        <v>17.67145325738013</v>
+        <v>25.59409485566102</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_201/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_201/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.23047904178452</v>
+        <v>28.97325038674006</v>
       </c>
       <c r="C2">
-        <v>19.86901821678549</v>
+        <v>21.54435122846641</v>
       </c>
       <c r="D2">
-        <v>11.1547285587345</v>
+        <v>6.637149175385996</v>
       </c>
       <c r="E2">
-        <v>9.269531559306516</v>
+        <v>5.912400174635825</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.861643185877579</v>
+        <v>2.157920306824491</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>46.17174936111569</v>
+        <v>34.59699424899042</v>
       </c>
       <c r="J2">
-        <v>6.344284098028226</v>
+        <v>5.028198892051296</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.00686773499833</v>
+        <v>9.29384913323374</v>
       </c>
       <c r="M2">
-        <v>26.16377165705835</v>
+        <v>18.34852477153677</v>
       </c>
       <c r="N2">
-        <v>25.63916579089601</v>
+        <v>17.82516426205257</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.03940577600938</v>
+        <v>27.45894796136801</v>
       </c>
       <c r="C3">
-        <v>19.59037697689681</v>
+        <v>20.21401856770666</v>
       </c>
       <c r="D3">
-        <v>11.1751999113411</v>
+        <v>6.594472672502675</v>
       </c>
       <c r="E3">
-        <v>9.258108059337692</v>
+        <v>5.854842672995578</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.866860942541714</v>
+        <v>2.173252143139431</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>46.13933565104431</v>
+        <v>33.89847410766221</v>
       </c>
       <c r="J3">
-        <v>6.350943247711864</v>
+        <v>4.85709675475689</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.02834488693622</v>
+        <v>9.176061391344916</v>
       </c>
       <c r="M3">
-        <v>26.14950876479657</v>
+        <v>17.75495660988431</v>
       </c>
       <c r="N3">
-        <v>25.67358032268842</v>
+        <v>17.94209442183397</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32.93094029205604</v>
+        <v>26.51899669265348</v>
       </c>
       <c r="C4">
-        <v>19.42384398051451</v>
+        <v>19.37927451167407</v>
       </c>
       <c r="D4">
-        <v>11.18933253883156</v>
+        <v>6.572146135093076</v>
       </c>
       <c r="E4">
-        <v>9.250967766169358</v>
+        <v>5.819986767731175</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.870227441466213</v>
+        <v>2.182825516405529</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>46.12772438176076</v>
+        <v>33.49337329893176</v>
       </c>
       <c r="J4">
-        <v>6.356207020055137</v>
+        <v>4.750346371576057</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.04394504891497</v>
+        <v>9.109794441474824</v>
       </c>
       <c r="M4">
-        <v>26.14640633426343</v>
+        <v>17.39831123591788</v>
       </c>
       <c r="N4">
-        <v>25.69661449019479</v>
+        <v>18.01967665350308</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32.88899833142332</v>
+        <v>26.13368556379663</v>
       </c>
       <c r="C5">
-        <v>19.35720664796712</v>
+        <v>19.03473051568833</v>
       </c>
       <c r="D5">
-        <v>11.19548463183433</v>
+        <v>6.563985821914879</v>
       </c>
       <c r="E5">
-        <v>9.248025951396945</v>
+        <v>5.805876181975526</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.871640426794786</v>
+        <v>2.186772272213541</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>46.12507461749587</v>
+        <v>33.3340446044575</v>
       </c>
       <c r="J5">
-        <v>6.358646989444681</v>
+        <v>4.706404990559223</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.05090833259212</v>
+        <v>9.084258073970981</v>
       </c>
       <c r="M5">
-        <v>26.14656409532334</v>
+        <v>17.25498691641337</v>
       </c>
       <c r="N5">
-        <v>25.70647898579796</v>
+        <v>18.05268103813273</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>32.88217117949856</v>
+        <v>26.06957789660363</v>
       </c>
       <c r="C6">
-        <v>19.34621794396421</v>
+        <v>18.97726034075292</v>
       </c>
       <c r="D6">
-        <v>11.19652991016342</v>
+        <v>6.562686412086852</v>
       </c>
       <c r="E6">
-        <v>9.247535517110933</v>
+        <v>5.803538006080595</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.871877540087739</v>
+        <v>2.18743052572938</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>46.12476026342038</v>
+        <v>33.30792920814599</v>
       </c>
       <c r="J6">
-        <v>6.359069941252484</v>
+        <v>4.699081707615657</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.05210116479036</v>
+        <v>9.080104891056104</v>
       </c>
       <c r="M6">
-        <v>26.14667616287026</v>
+        <v>17.23131125638685</v>
       </c>
       <c r="N6">
-        <v>25.70814581857626</v>
+        <v>18.05824349971132</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32.93036546339377</v>
+        <v>26.51380900780139</v>
       </c>
       <c r="C7">
-        <v>19.42294021614732</v>
+        <v>19.3746453637677</v>
       </c>
       <c r="D7">
-        <v>11.18941391731365</v>
+        <v>6.572032332044126</v>
       </c>
       <c r="E7">
-        <v>9.250928222210288</v>
+        <v>5.819796124147601</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.870246330790003</v>
+        <v>2.182878552634329</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>46.12768022103821</v>
+        <v>33.4912015356253</v>
       </c>
       <c r="J7">
-        <v>6.356238732879674</v>
+        <v>4.749755557223843</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.0440365051234</v>
+        <v>9.109444175695456</v>
       </c>
       <c r="M7">
-        <v>26.14640270468655</v>
+        <v>17.39637009261882</v>
       </c>
       <c r="N7">
-        <v>25.69674559227938</v>
+        <v>18.02011621976329</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.16277967720185</v>
+        <v>28.45336470083155</v>
       </c>
       <c r="C8">
-        <v>19.77204704780868</v>
+        <v>21.08941553337486</v>
       </c>
       <c r="D8">
-        <v>11.16146257905321</v>
+        <v>6.621606722618107</v>
       </c>
       <c r="E8">
-        <v>9.265618720945959</v>
+        <v>5.892435609486536</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.86340859213677</v>
+        <v>2.163177038067309</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>46.1588509036461</v>
+        <v>34.35106248443362</v>
       </c>
       <c r="J8">
-        <v>6.346335995217624</v>
+        <v>4.969543740526131</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.01377181493319</v>
+        <v>9.251945256434343</v>
       </c>
       <c r="M8">
-        <v>26.15768035060238</v>
+        <v>18.14226447649661</v>
       </c>
       <c r="N8">
-        <v>25.65063638478398</v>
+        <v>17.8642383990771</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.68721464398347</v>
+        <v>32.16961839239362</v>
       </c>
       <c r="C9">
-        <v>20.48909676107139</v>
+        <v>24.30968882613352</v>
       </c>
       <c r="D9">
-        <v>11.11905877624877</v>
+        <v>6.751382914852446</v>
       </c>
       <c r="E9">
-        <v>9.293441850839827</v>
+        <v>6.040210798296706</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.8512832083844</v>
+        <v>2.12553121749917</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>46.28585284660496</v>
+        <v>36.23761890502156</v>
       </c>
       <c r="J9">
-        <v>6.376104971456146</v>
+        <v>5.388143241006029</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.97359963678973</v>
+        <v>9.582118087409624</v>
       </c>
       <c r="M9">
-        <v>26.22463479307174</v>
+        <v>19.66615950706209</v>
       </c>
       <c r="N9">
-        <v>25.57535500156725</v>
+        <v>17.60793383386559</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.11203015828291</v>
+        <v>34.84704107856822</v>
       </c>
       <c r="C10">
-        <v>21.03066829019326</v>
+        <v>26.59632820894112</v>
       </c>
       <c r="D10">
-        <v>11.09547758653459</v>
+        <v>6.869354702280418</v>
       </c>
       <c r="E10">
-        <v>9.31330730286672</v>
+        <v>6.15448803203095</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.843145673405085</v>
+        <v>2.098026486690615</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.41939340016732</v>
+        <v>37.76484063190193</v>
       </c>
       <c r="J10">
-        <v>6.455893136271731</v>
+        <v>5.690253401647539</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.95581437442559</v>
+        <v>9.859863142958906</v>
       </c>
       <c r="M10">
-        <v>26.30107499111924</v>
+        <v>20.82487006095919</v>
       </c>
       <c r="N10">
-        <v>25.52932424971554</v>
+        <v>17.45542899156</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.31330516125492</v>
+        <v>36.0563996772663</v>
       </c>
       <c r="C11">
-        <v>21.27917230897687</v>
+        <v>27.62328648049013</v>
       </c>
       <c r="D11">
-        <v>11.08639568912072</v>
+        <v>6.928654858921687</v>
       </c>
       <c r="E11">
-        <v>9.322224782241733</v>
+        <v>6.208404074204974</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.839608660773862</v>
+        <v>2.085424852870619</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>46.48887340043949</v>
+        <v>38.49565031689803</v>
       </c>
       <c r="J11">
-        <v>6.491330280368625</v>
+        <v>5.827215953607092</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.95027690820797</v>
+        <v>9.994997186008433</v>
       </c>
       <c r="M11">
-        <v>26.34173079222488</v>
+        <v>21.36188751257331</v>
       </c>
       <c r="N11">
-        <v>25.5104094480333</v>
+        <v>17.39541486547315</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.39062512526432</v>
+        <v>36.51354740754812</v>
       </c>
       <c r="C12">
-        <v>21.37349333619802</v>
+        <v>28.0228734239775</v>
       </c>
       <c r="D12">
-        <v>11.08319326866747</v>
+        <v>6.951991432890275</v>
       </c>
       <c r="E12">
-        <v>9.325584825514094</v>
+        <v>6.229170079445049</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.838292792789315</v>
+        <v>2.080627612227831</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>46.51643639261152</v>
+        <v>38.77814585393376</v>
       </c>
       <c r="J12">
-        <v>6.504624211988011</v>
+        <v>5.879091824722355</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.94854749440462</v>
+        <v>10.0475496443707</v>
       </c>
       <c r="M12">
-        <v>26.35796744403936</v>
+        <v>21.56686970731384</v>
       </c>
       <c r="N12">
-        <v>25.50353902573977</v>
+        <v>17.37419977433199</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.37392475573353</v>
+        <v>36.41511978279451</v>
       </c>
       <c r="C13">
-        <v>21.35317133317862</v>
+        <v>27.93598509694177</v>
       </c>
       <c r="D13">
-        <v>11.08387243866692</v>
+        <v>6.946925051918865</v>
       </c>
       <c r="E13">
-        <v>9.324861922092524</v>
+        <v>6.224680922374367</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.838575145145999</v>
+        <v>2.081662129991998</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>46.51044457017399</v>
+        <v>38.71703905882129</v>
       </c>
       <c r="J13">
-        <v>6.501766729605427</v>
+        <v>5.867917467182103</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.948903604969</v>
+        <v>10.03616803723667</v>
       </c>
       <c r="M13">
-        <v>26.35443326350881</v>
+        <v>21.52264676685093</v>
       </c>
       <c r="N13">
-        <v>25.50500568158585</v>
+        <v>17.37869866270442</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.31964455359009</v>
+        <v>36.09402265148928</v>
       </c>
       <c r="C14">
-        <v>21.28692829682515</v>
+        <v>27.65518898311845</v>
       </c>
       <c r="D14">
-        <v>11.08612747979715</v>
+        <v>6.930556671158311</v>
       </c>
       <c r="E14">
-        <v>9.322501549909109</v>
+        <v>6.210105046247904</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.839499933111334</v>
+        <v>2.085030766690465</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>46.49111594635097</v>
+        <v>38.51877237170326</v>
       </c>
       <c r="J14">
-        <v>6.492426502628039</v>
+        <v>5.8314830688055</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.95012726121345</v>
+        <v>9.99929229600432</v>
       </c>
       <c r="M14">
-        <v>26.3430497630725</v>
+        <v>21.37871750865753</v>
       </c>
       <c r="N14">
-        <v>25.50983835209271</v>
+        <v>17.3936381500307</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.28653821646365</v>
+        <v>35.89725158696805</v>
       </c>
       <c r="C15">
-        <v>21.24637827163026</v>
+        <v>27.48830772289231</v>
       </c>
       <c r="D15">
-        <v>11.08753958519062</v>
+        <v>6.92064758263278</v>
       </c>
       <c r="E15">
-        <v>9.321053574984413</v>
+        <v>6.201224743470352</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.840069450496759</v>
+        <v>2.087090455851018</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>46.47943959427675</v>
+        <v>38.39809662552335</v>
       </c>
       <c r="J15">
-        <v>6.486688966303173</v>
+        <v>5.809170065314816</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.95092465509734</v>
+        <v>9.976888434998532</v>
       </c>
       <c r="M15">
-        <v>26.3361864314129</v>
+        <v>21.29077567501075</v>
       </c>
       <c r="N15">
-        <v>25.51283658675218</v>
+        <v>17.40299120841799</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.09903340496713</v>
+        <v>34.76786604604711</v>
       </c>
       <c r="C16">
-        <v>21.01446332042251</v>
+        <v>26.52898600916554</v>
       </c>
       <c r="D16">
-        <v>11.0961042271182</v>
+        <v>6.865598457358993</v>
       </c>
       <c r="E16">
-        <v>9.312722152342383</v>
+        <v>6.15100913978922</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.843380126585545</v>
+        <v>2.09884722091032</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>46.41502817743669</v>
+        <v>37.71785196890271</v>
       </c>
       <c r="J16">
-        <v>6.453559794471239</v>
+        <v>5.681299419186258</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.9562276701115</v>
+        <v>9.851218079149216</v>
       </c>
       <c r="M16">
-        <v>26.29853602861586</v>
+        <v>20.78998946215688</v>
       </c>
       <c r="N16">
-        <v>25.5306012091729</v>
+        <v>17.45955283334634</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.98602393451534</v>
+        <v>34.07306998847152</v>
       </c>
       <c r="C17">
-        <v>20.87267478746411</v>
+        <v>25.93738344905735</v>
       </c>
       <c r="D17">
-        <v>11.1017798417412</v>
+        <v>6.833317484492031</v>
       </c>
       <c r="E17">
-        <v>9.307580764394812</v>
+        <v>6.120744609651635</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.845453201947317</v>
+        <v>2.106028525571875</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>46.37774836548786</v>
+        <v>37.31014776322878</v>
       </c>
       <c r="J17">
-        <v>6.433014818135735</v>
+        <v>5.602784800326084</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.96013511005824</v>
+        <v>9.776449904050533</v>
       </c>
       <c r="M17">
-        <v>26.27694233630682</v>
+        <v>20.48543010892908</v>
       </c>
       <c r="N17">
-        <v>25.5420185657111</v>
+        <v>17.49675721731062</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.92178245092359</v>
+        <v>33.67259539128938</v>
       </c>
       <c r="C18">
-        <v>20.79132853059181</v>
+        <v>25.59582512367161</v>
       </c>
       <c r="D18">
-        <v>11.10519916439833</v>
+        <v>6.815275816786115</v>
       </c>
       <c r="E18">
-        <v>9.304612312605864</v>
+        <v>6.103513963564681</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.846661101615747</v>
+        <v>2.110151447635751</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>46.35712814093908</v>
+        <v>37.07900168248729</v>
       </c>
       <c r="J18">
-        <v>6.421117155825313</v>
+        <v>5.557575390518055</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.96262286409421</v>
+        <v>9.734264097125584</v>
       </c>
       <c r="M18">
-        <v>26.26507626957693</v>
+        <v>20.31117248696521</v>
       </c>
       <c r="N18">
-        <v>25.54877604973406</v>
+        <v>17.51902582481586</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.90016323367547</v>
+        <v>33.53684592392123</v>
       </c>
       <c r="C19">
-        <v>20.76382436090337</v>
+        <v>25.47994622735574</v>
       </c>
       <c r="D19">
-        <v>11.1063834819082</v>
+        <v>6.809255499125591</v>
       </c>
       <c r="E19">
-        <v>9.30360530077772</v>
+        <v>6.097708357176914</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.847072746861323</v>
+        <v>2.111546439757998</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>46.35028776801951</v>
+        <v>37.00130043473843</v>
       </c>
       <c r="J19">
-        <v>6.417075002070121</v>
+        <v>5.542257609078471</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.96350643345507</v>
+        <v>9.720118154698554</v>
       </c>
       <c r="M19">
-        <v>26.26115391321004</v>
+        <v>20.25232451675344</v>
       </c>
       <c r="N19">
-        <v>25.55109670877863</v>
+        <v>17.52671041004463</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.99797584846117</v>
+        <v>34.14711724120831</v>
       </c>
       <c r="C20">
-        <v>20.88774767651823</v>
+        <v>26.00049038012009</v>
       </c>
       <c r="D20">
-        <v>11.10115963469954</v>
+        <v>6.836698986603415</v>
       </c>
       <c r="E20">
-        <v>9.308129236837917</v>
+        <v>6.123947558062256</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.845230914383658</v>
+        <v>2.105264930124282</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>46.38163179647158</v>
+        <v>37.35319766964945</v>
       </c>
       <c r="J20">
-        <v>6.435210235169297</v>
+        <v>5.611147469867209</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.95969428352276</v>
+        <v>9.784323580991902</v>
       </c>
       <c r="M20">
-        <v>26.27918371095618</v>
+        <v>20.51775488768891</v>
       </c>
       <c r="N20">
-        <v>25.54078344282075</v>
+        <v>17.4927056452526</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.33555849895207</v>
+        <v>36.18835436055379</v>
       </c>
       <c r="C21">
-        <v>21.30638027435669</v>
+        <v>27.73566591783541</v>
       </c>
       <c r="D21">
-        <v>11.0854586949642</v>
+        <v>6.935339931642835</v>
       </c>
       <c r="E21">
-        <v>9.323195301856531</v>
+        <v>6.214376215302075</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.839227663484591</v>
+        <v>2.084042112536618</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>46.49675927240375</v>
+        <v>38.57684678624135</v>
       </c>
       <c r="J21">
-        <v>6.495173370008768</v>
+        <v>5.84218370777451</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.94975786731932</v>
+        <v>10.01008509147338</v>
       </c>
       <c r="M21">
-        <v>26.34637058576484</v>
+        <v>21.42094690744166</v>
       </c>
       <c r="N21">
-        <v>25.50841094096939</v>
+        <v>17.38920758487534</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.56258283605634</v>
+        <v>37.51802902592663</v>
       </c>
       <c r="C22">
-        <v>21.58121097326995</v>
+        <v>28.90763997549071</v>
       </c>
       <c r="D22">
-        <v>11.07657690437745</v>
+        <v>7.004984038106662</v>
       </c>
       <c r="E22">
-        <v>9.332944017506291</v>
+        <v>6.275556284895781</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.835441214581444</v>
+        <v>2.070016938112228</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>46.57929952531179</v>
+        <v>39.41047295768158</v>
       </c>
       <c r="J22">
-        <v>6.533631309650087</v>
+        <v>5.993295769359317</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>14.94540604175304</v>
+        <v>10.16575027835218</v>
       </c>
       <c r="M22">
-        <v>26.39518134029433</v>
+        <v>22.02086438259421</v>
       </c>
       <c r="N22">
-        <v>25.48895731331818</v>
+        <v>17.33047298501545</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.4408484248409</v>
+        <v>36.80856973430452</v>
       </c>
       <c r="C23">
-        <v>21.43444529009201</v>
+        <v>28.28309642073964</v>
       </c>
       <c r="D23">
-        <v>11.08119101450893</v>
+        <v>6.96731338556366</v>
       </c>
       <c r="E23">
-        <v>9.327749776696347</v>
+        <v>6.242685397593701</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.837449633884402</v>
+        <v>2.077521325123451</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>46.53457984199147</v>
+        <v>38.96222620027972</v>
       </c>
       <c r="J23">
-        <v>6.513173106919097</v>
+        <v>5.912602380405676</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.94753258648516</v>
+        <v>10.08188107798019</v>
       </c>
       <c r="M23">
-        <v>26.36868353966168</v>
+        <v>21.69970766212964</v>
       </c>
       <c r="N23">
-        <v>25.49918384719034</v>
+        <v>17.36094276661663</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.99257011302929</v>
+        <v>34.11364370737132</v>
       </c>
       <c r="C24">
-        <v>20.88093268746793</v>
+        <v>25.97196425072384</v>
       </c>
       <c r="D24">
-        <v>11.10143954335897</v>
+        <v>6.835168604016609</v>
       </c>
       <c r="E24">
-        <v>9.307881311717592</v>
+        <v>6.122498984345538</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.84533136055111</v>
+        <v>2.105610168499381</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>46.37987356653944</v>
+        <v>37.33372472980903</v>
       </c>
       <c r="J24">
-        <v>6.434217955113747</v>
+        <v>5.607366931560729</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.95989282958664</v>
+        <v>9.780761410133692</v>
       </c>
       <c r="M24">
-        <v>26.27816867687573</v>
+        <v>20.50313826019219</v>
       </c>
       <c r="N24">
-        <v>25.54134123926842</v>
+        <v>17.49453463431182</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>33.53821932182072</v>
+        <v>31.17405069792883</v>
       </c>
       <c r="C25">
-        <v>20.29215810311216</v>
+        <v>23.45338274342039</v>
       </c>
       <c r="D25">
-        <v>11.12920075335383</v>
+        <v>6.712520629267258</v>
       </c>
       <c r="E25">
-        <v>9.286017897038889</v>
+        <v>5.999433837054998</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.854427229163647</v>
+        <v>2.135651954205525</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>46.24443095865834</v>
+        <v>35.70402568604283</v>
       </c>
       <c r="J25">
-        <v>6.345972869059222</v>
+        <v>5.276048350492387</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.98240992943324</v>
+        <v>9.486961959925768</v>
       </c>
       <c r="M25">
-        <v>26.20172702684741</v>
+        <v>19.2473225357945</v>
       </c>
       <c r="N25">
-        <v>25.59409485566102</v>
+        <v>17.6714532573803</v>
       </c>
       <c r="O25">
         <v>0</v>
